--- a/SpermWhales/Encounter3.xlsx
+++ b/SpermWhales/Encounter3.xlsx
@@ -45,21 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -85,12 +71,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,141 +355,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
         <v>43670.327803505003</v>
       </c>
       <c r="B2">
         <v>914.3482893705368</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
         <v>43670.328396204277</v>
       </c>
       <c r="B3">
         <v>1080.1691561937332</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
         <v>43670.335370109067</v>
       </c>
       <c r="B4">
         <v>1141.2128806114197</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
         <v>43670.33538331755</v>
       </c>
       <c r="B5">
         <v>1093.3354496955872</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
         <v>43670.335673905676</v>
       </c>
       <c r="B6">
         <v>1044.8545217514038</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
         <v>43670.3356859989</v>
       </c>
       <c r="B7">
         <v>1058.5237294435501</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
         <v>43670.335698250332</v>
       </c>
       <c r="B8">
         <v>1061.7524385452271</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4">
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
         <v>43670.335760188056</v>
       </c>
       <c r="B9">
         <v>1127.9761791229248</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
         <v>43670.335773243336</v>
       </c>
       <c r="B10">
         <v>1108.8553816080093</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4">
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
         <v>43670.336014973815</v>
       </c>
       <c r="B11">
         <v>1095.6589132547379</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
         <v>43670.336252383539</v>
       </c>
       <c r="B12">
         <v>1146.9360440969467</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4">
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
         <v>43670.336265658261</v>
       </c>
       <c r="B13">
         <v>1172.8763580322266</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
         <v>43670.336279233219</v>
       </c>
       <c r="B14">
         <v>1158.7344110012054</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4">
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
         <v>43670.336292644497</v>
       </c>
       <c r="B15">
         <v>1176.5275150537491</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4">
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
         <v>43670.336306261706</v>
       </c>
       <c r="B16">
@@ -513,7 +494,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>43670.336318986374</v>
       </c>
       <c r="B17">
@@ -521,7 +502,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>43670.336331633269</v>
       </c>
       <c r="B18">
@@ -529,7 +510,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>43670.336344750365</v>
       </c>
       <c r="B19">
@@ -537,7 +518,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>43670.342067415128</v>
       </c>
       <c r="B20">
@@ -545,7 +526,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>43670.342081799987</v>
       </c>
       <c r="B21">
@@ -553,7 +534,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>43670.34209725901</v>
       </c>
       <c r="B22">
@@ -561,7 +542,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>43670.342110393911</v>
       </c>
       <c r="B23">
@@ -569,7 +550,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>43670.342276701114</v>
       </c>
       <c r="B24">
@@ -577,7 +558,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>43670.342289759195</v>
       </c>
       <c r="B25">
@@ -585,7 +566,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>43670.34237096773</v>
       </c>
       <c r="B26">
@@ -593,7 +574,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>43670.342384788673</v>
       </c>
       <c r="B27">
@@ -601,7 +582,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>43670.342398796463</v>
       </c>
       <c r="B28">
@@ -609,7 +590,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>43670.342412636965</v>
       </c>
       <c r="B29">
@@ -617,7 +598,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>43670.342427004245</v>
       </c>
       <c r="B30">
@@ -625,211 +606,11 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>43670.342470905278</v>
       </c>
       <c r="B31">
         <v>1254.6803802251816</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2">
-        <v>43670.336331633269</v>
-      </c>
-      <c r="B32">
-        <v>1133.3171278238297</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2">
-        <v>43670.336344750365</v>
-      </c>
-      <c r="B33">
-        <v>1184.6546083688736</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2">
-        <v>43670.336358461645</v>
-      </c>
-      <c r="B34">
-        <v>490811.45972013474</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2">
-        <v>43670.342039149837</v>
-      </c>
-      <c r="B35">
-        <v>2442.1211332082748</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2">
-        <v>43670.342067415128</v>
-      </c>
-      <c r="B36">
-        <v>1242.8518384695053</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2">
-        <v>43670.342081799987</v>
-      </c>
-      <c r="B37">
-        <v>1246.362179517746</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2">
-        <v>43670.342096225475</v>
-      </c>
-      <c r="B38">
-        <v>89.297443628311157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2">
-        <v>43670.34209725901</v>
-      </c>
-      <c r="B39">
-        <v>1114.7696524858475</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2">
-        <v>43670.342110161437</v>
-      </c>
-      <c r="B40">
-        <v>20.086392760276794</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2">
-        <v>43670.342110393911</v>
-      </c>
-      <c r="B41">
-        <v>1149.7423052787781</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2">
-        <v>43670.342123701121</v>
-      </c>
-      <c r="B42">
-        <v>19.985809922218323</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2">
-        <v>43670.342123932438</v>
-      </c>
-      <c r="B43">
-        <v>13199.214264750481</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2">
-        <v>43670.342276701114</v>
-      </c>
-      <c r="B44">
-        <v>1128.2175779342651</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2">
-        <v>43670.342289759195</v>
-      </c>
-      <c r="B45">
-        <v>1099.9739170074463</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2">
-        <v>43670.342302490375</v>
-      </c>
-      <c r="B46">
-        <v>5916.4434671401978</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2">
-        <v>43670.34237096773</v>
-      </c>
-      <c r="B47">
-        <v>1194.1295117139816</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2">
-        <v>43670.342384788673</v>
-      </c>
-      <c r="B48">
-        <v>1210.2730572223663</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2">
-        <v>43670.342398796463</v>
-      </c>
-      <c r="B49">
-        <v>1195.819303393364</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2">
-        <v>43670.342412636965</v>
-      </c>
-      <c r="B50">
-        <v>1241.3330376148224</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2">
-        <v>43670.342427004245</v>
-      </c>
-      <c r="B51">
-        <v>1263.9742344617844</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2">
-        <v>43670.342441633577</v>
-      </c>
-      <c r="B52">
-        <v>2529.0749967098236</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2">
-        <v>43670.342470905278</v>
-      </c>
-      <c r="B53">
-        <v>1254.6803802251816</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2">
-        <v>43670.342485427042</v>
-      </c>
-      <c r="B54">
-        <v>4282103.2773703337</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2">
-        <v>43670.392046807567</v>
-      </c>
-      <c r="B55">
-        <v>62142.752856016159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2">
-        <v>43670.392766052391</v>
-      </c>
-      <c r="B56">
-        <v>13394036.543369293</v>
       </c>
     </row>
   </sheetData>
